--- a/工作流/PrlYL_Contract_合同审批流程流程.xlsx
+++ b/工作流/PrlYL_Contract_合同审批流程流程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="18150" windowHeight="9225" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="18150" windowHeight="9225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="146">
   <si>
     <t>标题信息</t>
   </si>
@@ -637,6 +637,22 @@
   </si>
   <si>
     <t>ContractMatters</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>BName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1949,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2191,7 +2207,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>94</v>
@@ -2200,149 +2216,147 @@
         <v>54</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="45"/>
+      <c r="E20" s="35" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="45"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="37" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="39"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="34" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="47"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
@@ -2351,14 +2365,14 @@
         <v>50</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="45"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>49</v>
@@ -2367,66 +2381,68 @@
         <v>50</v>
       </c>
       <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>109</v>
+      </c>
       <c r="F35" s="45"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>76</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E36" s="44"/>
       <c r="F36" s="45"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B37" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="1"/>
       <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="44" t="s">
+        <v>76</v>
+      </c>
       <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>66</v>
@@ -2437,184 +2453,182 @@
       <c r="E39" s="1"/>
       <c r="F39" s="45"/>
     </row>
-    <row r="40" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="E40" s="1"/>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F42" s="46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="45"/>
+        <v>79</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>83</v>
-      </c>
+      <c r="B44" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="45"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F45" s="45"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>83</v>
+      </c>
       <c r="F46" s="45"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="45"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="45"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="47" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="45"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48" t="s">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="47"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="47" t="s">
+      <c r="F51" s="47"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>49</v>
@@ -2623,14 +2637,14 @@
         <v>50</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" s="45"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>49</v>
@@ -2638,151 +2652,181 @@
       <c r="D54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="45"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>109</v>
+      </c>
       <c r="F55" s="45"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F56" s="45"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>89</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>89</v>
+      </c>
       <c r="F59" s="45"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="45"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="45"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="45"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="31"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="45"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E66" s="35"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E68" s="35"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E70" s="35"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E71" s="35"/>
-      <c r="F71" s="38"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E73" s="35"/>
-      <c r="F73" s="43"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E74" s="35"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="31"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="31"/>
+      <c r="F73" s="38"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E75" s="35"/>
+      <c r="F75" s="43"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E76" s="35"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E79" s="35"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="31"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E81" s="35"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
